--- a/data/trans_camb/P16A07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,25</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 3,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 2,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 5,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,08; 7,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 3,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 5,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 5,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 2,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,53; 5,05</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,66%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,87; 106,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,71; 64,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,59; 161,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,08; 80,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,3; 44,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,01; 62,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,71; 77,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,79; 42,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,36; 78,49</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 1,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 2,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 2,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 3,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 3,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 1,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 2,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 3,06</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>195,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,21%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,71; 337,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,65; 227,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,29; 432,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,72; 63,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,08; 88,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,36; 102,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,01; 84,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,04; 89,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,2; 134,92</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 1,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; -0,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 1,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 0,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 1,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 2,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 0,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 0,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 1,64</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,12%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,27; 140,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 9,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,61; 148,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,61; 47,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,29; 53,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,81; 98,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,25; 32,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,37; 5,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,23; 81,89</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 1,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 2,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 3,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 1,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 2,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 2,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 1,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 2,03</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,56%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,87; 97,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,54; 42,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,21; 118,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,05; 53,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; 27,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 40,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,67; 58,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,95; 25,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,1; 51,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>3,2</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,13</t>
+          <t>0,46; 5,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,63</t>
+          <t>0,76; 5,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,05</t>
+          <t>1,46; 5,0</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,1%</t>
+          <t>67,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>43,94%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,59; 161,83</t>
+          <t>7,15; 163,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 62,29</t>
+          <t>6,62; 62,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,36; 78,49</t>
+          <t>18,54; 77,51</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,94</t>
+          <t>0,72; 2,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,75</t>
+          <t>-0,16; 3,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,06</t>
+          <t>0,62; 2,69</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>195,56%</t>
+          <t>163,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,81%</t>
+          <t>37,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>82,21%</t>
+          <t>63,66%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,29; 432,08</t>
+          <t>49,13; 367,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,36; 102,24</t>
+          <t>-3,41; 86,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,2; 134,92</t>
+          <t>18,9; 113,31</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,75</t>
+          <t>-1,44; 1,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,28</t>
+          <t>-2,16; 2,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,64</t>
+          <t>-1,09; 1,56</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>9,05%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 148,47</t>
+          <t>-52,33; 141,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,81; 98,12</t>
+          <t>-42,35; 93,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 81,89</t>
+          <t>-32,28; 77,69</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,93</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,13</t>
+          <t>0,13; 1,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,34</t>
+          <t>-1,02; 2,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,03</t>
+          <t>0,16; 1,71</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>21,4%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,21; 118,67</t>
+          <t>4,92; 104,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 40,57</t>
+          <t>-13,55; 34,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,1; 51,47</t>
+          <t>3,91; 43,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,4</t>
+          <t>-0,94; 3,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,2</t>
+          <t>-1,63; 2,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,28</t>
+          <t>0,47; 5,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 7,18</t>
+          <t>1,86; 6,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,87</t>
+          <t>-1,18; 4,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,63</t>
+          <t>0,7; 5,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,06</t>
+          <t>1,54; 4,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,86</t>
+          <t>-0,6; 2,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,0</t>
+          <t>1,41; 5,01</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 106,61</t>
+          <t>-19,2; 100,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 64,91</t>
+          <t>-36,13; 68,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 163,23</t>
+          <t>8,57; 173,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,08; 80,66</t>
+          <t>16,77; 80,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 44,0</t>
+          <t>-10,96; 49,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 62,96</t>
+          <t>5,96; 66,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,71; 77,2</t>
+          <t>17,95; 73,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 42,81</t>
+          <t>-7,77; 44,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,54; 77,51</t>
+          <t>16,7; 76,99</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,35</t>
+          <t>0,51; 2,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 1,59</t>
+          <t>0,1; 1,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,62</t>
+          <t>0,69; 2,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,43</t>
+          <t>-0,53; 2,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,2</t>
+          <t>0,38; 3,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,39</t>
+          <t>-0,35; 3,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,94</t>
+          <t>0,23; 1,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,11</t>
+          <t>0,44; 2,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,69</t>
+          <t>0,62; 2,59</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,71; 337,49</t>
+          <t>35,43; 309,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 227,12</t>
+          <t>0,7; 229,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,13; 367,66</t>
+          <t>47,91; 346,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 63,73</t>
+          <t>-10,41; 66,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 88,23</t>
+          <t>7,12; 90,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 86,87</t>
+          <t>-5,81; 87,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,01; 84,24</t>
+          <t>6,61; 84,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,04; 89,08</t>
+          <t>14,39; 91,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 113,31</t>
+          <t>19,03; 109,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,9</t>
+          <t>-1,79; 1,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; -0,27</t>
+          <t>-2,9; -0,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,78</t>
+          <t>-1,37; 2,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 0,88</t>
+          <t>-3,62; 0,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 1,18</t>
+          <t>-3,29; 1,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,13</t>
+          <t>-2,04; 2,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,73</t>
+          <t>-2,12; 0,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,1</t>
+          <t>-2,49; 0,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,56</t>
+          <t>-0,99; 1,55</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,27; 140,34</t>
+          <t>-68,89; 159,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 9,29</t>
+          <t>-100,0; 6,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,33; 141,87</t>
+          <t>-49,41; 161,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-74,61; 47,16</t>
+          <t>-75,47; 36,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,29; 53,98</t>
+          <t>-66,67; 55,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 93,64</t>
+          <t>-41,73; 97,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,25; 32,87</t>
+          <t>-64,07; 51,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,37; 5,99</t>
+          <t>-70,51; 10,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 77,69</t>
+          <t>-29,03; 81,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,82</t>
+          <t>0,15; 1,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,74</t>
+          <t>-0,62; 0,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,93</t>
+          <t>0,17; 1,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,2</t>
+          <t>0,48; 3,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,67</t>
+          <t>-0,63; 1,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,01</t>
+          <t>-0,75; 2,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,3</t>
+          <t>0,66; 2,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,05</t>
+          <t>-0,39; 1,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,71</t>
+          <t>0,11; 1,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,87; 97,24</t>
+          <t>6,07; 96,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 42,1</t>
+          <t>-25,46; 41,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,92; 104,94</t>
+          <t>6,62; 107,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,05; 53,44</t>
+          <t>6,75; 52,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 27,65</t>
+          <t>-8,76; 30,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 34,48</t>
+          <t>-10,86; 33,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,67; 58,25</t>
+          <t>13,4; 57,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 25,7</t>
+          <t>-8,26; 27,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,91; 43,51</t>
+          <t>2,26; 39,71</t>
         </is>
       </c>
     </row>
